--- a/dist/EricForm.xlsx
+++ b/dist/EricForm.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="751">
   <si>
     <t>Submission Date</t>
   </si>
@@ -2210,6 +2210,12 @@
     <t>Nutrify Meals  (DRY) &gt;&gt; ($2.5/BTL) RMPIGHEMR680- Gherkins Royal Miller 12x680g &gt;&gt; CT Quantity</t>
   </si>
   <si>
+    <t xml:space="preserve">Food Spectrum  (DRY) &gt;&gt; ($81.11/CT) RMPICAPER0700- Capers In Vinegar Royal Miller 12... &gt;&gt; EA Quantity </t>
+  </si>
+  <si>
+    <t>Food Spectrum  (DRY) &gt;&gt; ($81.11/CT) RMPICAPER0700- Capers In Vinegar Royal Miller 12... &gt;&gt; CT Quantity</t>
+  </si>
+  <si>
     <t>bi</t>
   </si>
   <si>
@@ -2235,6 +2241,30 @@
   </si>
   <si>
     <t>52504-59391-- 8A Admiralty St #06-27</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>104694-344624-- Level 1 Hot Kitchen, 150 Tyrwhitt Rd</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>668441-346279-- 371 Beach Road Citygate</t>
+  </si>
+  <si>
+    <t>Turkey Breast - 30kg (Level 3 provide weight)</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>706447-347559-- 5 Mandai Link</t>
+  </si>
+  <si>
+    <t>FO</t>
   </si>
 </sst>
 </file>
@@ -2690,660 +2720,663 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.88"/>
-    <col customWidth="1" min="2" max="2" width="11.5"/>
-    <col customWidth="1" min="3" max="3" width="14.38"/>
-    <col customWidth="1" min="4" max="4" width="30.75"/>
-    <col customWidth="1" min="5" max="5" width="12.5"/>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="2" width="10.5"/>
+    <col customWidth="1" min="3" max="3" width="12.88"/>
+    <col customWidth="1" min="4" max="4" width="16.0"/>
+    <col customWidth="1" min="5" max="5" width="11.25"/>
     <col customWidth="1" min="6" max="6" width="39.5"/>
-    <col customWidth="1" min="7" max="7" width="18.75"/>
-    <col customWidth="1" min="8" max="8" width="10.5"/>
+    <col customWidth="1" min="7" max="7" width="16.75"/>
+    <col customWidth="1" min="8" max="8" width="9.38"/>
     <col customWidth="1" min="9" max="9" width="25.25"/>
-    <col customWidth="1" min="10" max="10" width="9.63"/>
+    <col customWidth="1" min="10" max="10" width="8.75"/>
     <col customWidth="1" min="11" max="11" width="31.75"/>
     <col customWidth="1" min="12" max="12" width="23.75"/>
-    <col customWidth="1" min="13" max="13" width="20.75"/>
-    <col customWidth="1" min="14" max="14" width="19.13"/>
-    <col customWidth="1" min="15" max="15" width="16.5"/>
+    <col customWidth="1" min="13" max="13" width="18.5"/>
+    <col customWidth="1" min="14" max="14" width="17.13"/>
+    <col customWidth="1" min="15" max="15" width="14.88"/>
     <col customWidth="1" min="16" max="16" width="32.63"/>
-    <col customWidth="1" min="17" max="17" width="33.13"/>
+    <col customWidth="1" min="17" max="17" width="12.13"/>
     <col customWidth="1" min="18" max="18" width="28.5"/>
-    <col customWidth="1" min="19" max="19" width="15.13"/>
-    <col customWidth="1" min="20" max="20" width="17.38"/>
-    <col customWidth="1" min="21" max="22" width="82.38"/>
-    <col customWidth="1" min="23" max="24" width="81.5"/>
-    <col customWidth="1" min="25" max="26" width="87.75"/>
-    <col customWidth="1" min="27" max="28" width="88.5"/>
-    <col customWidth="1" min="29" max="30" width="85.13"/>
-    <col customWidth="1" min="31" max="32" width="86.38"/>
-    <col customWidth="1" min="33" max="34" width="88.25"/>
-    <col customWidth="1" min="35" max="36" width="85.0"/>
-    <col customWidth="1" min="37" max="38" width="85.5"/>
-    <col customWidth="1" min="39" max="40" width="84.13"/>
-    <col customWidth="1" min="41" max="41" width="82.88"/>
-    <col customWidth="1" min="42" max="42" width="82.38"/>
-    <col customWidth="1" min="43" max="43" width="96.75"/>
-    <col customWidth="1" min="44" max="44" width="96.38"/>
-    <col customWidth="1" min="45" max="45" width="92.38"/>
-    <col customWidth="1" min="46" max="46" width="91.88"/>
-    <col customWidth="1" min="47" max="47" width="98.13"/>
-    <col customWidth="1" min="48" max="48" width="97.63"/>
-    <col customWidth="1" min="49" max="49" width="93.88"/>
-    <col customWidth="1" min="50" max="50" width="93.38"/>
-    <col customWidth="1" min="51" max="51" width="90.13"/>
-    <col customWidth="1" min="52" max="52" width="89.63"/>
-    <col customWidth="1" min="53" max="53" width="86.0"/>
-    <col customWidth="1" min="54" max="54" width="85.5"/>
-    <col customWidth="1" min="55" max="55" width="87.13"/>
-    <col customWidth="1" min="56" max="56" width="86.63"/>
-    <col customWidth="1" min="57" max="57" width="91.5"/>
-    <col customWidth="1" min="58" max="58" width="91.0"/>
-    <col customWidth="1" min="59" max="59" width="90.5"/>
-    <col customWidth="1" min="60" max="60" width="90.13"/>
-    <col customWidth="1" min="61" max="61" width="93.38"/>
-    <col customWidth="1" min="62" max="62" width="93.0"/>
-    <col customWidth="1" min="63" max="63" width="99.75"/>
-    <col customWidth="1" min="64" max="64" width="99.25"/>
-    <col customWidth="1" min="65" max="65" width="99.13"/>
-    <col customWidth="1" min="66" max="66" width="98.63"/>
-    <col customWidth="1" min="67" max="67" width="98.75"/>
-    <col customWidth="1" min="68" max="68" width="98.38"/>
-    <col customWidth="1" min="69" max="69" width="97.0"/>
-    <col customWidth="1" min="70" max="70" width="96.5"/>
-    <col customWidth="1" min="71" max="71" width="100.25"/>
-    <col customWidth="1" min="72" max="72" width="99.75"/>
-    <col customWidth="1" min="73" max="73" width="80.38"/>
-    <col customWidth="1" min="74" max="74" width="80.0"/>
-    <col customWidth="1" min="75" max="75" width="86.75"/>
-    <col customWidth="1" min="76" max="76" width="86.38"/>
-    <col customWidth="1" min="77" max="77" width="92.5"/>
-    <col customWidth="1" min="78" max="78" width="92.13"/>
-    <col customWidth="1" min="79" max="79" width="85.13"/>
-    <col customWidth="1" min="80" max="80" width="84.75"/>
-    <col customWidth="1" min="81" max="81" width="85.13"/>
-    <col customWidth="1" min="82" max="82" width="84.63"/>
-    <col customWidth="1" min="83" max="83" width="94.75"/>
-    <col customWidth="1" min="84" max="84" width="94.38"/>
-    <col customWidth="1" min="85" max="85" width="96.25"/>
-    <col customWidth="1" min="86" max="86" width="95.75"/>
-    <col customWidth="1" min="87" max="87" width="88.75"/>
-    <col customWidth="1" min="88" max="88" width="88.25"/>
-    <col customWidth="1" min="89" max="89" width="97.38"/>
-    <col customWidth="1" min="90" max="90" width="97.0"/>
-    <col customWidth="1" min="91" max="91" width="93.5"/>
-    <col customWidth="1" min="92" max="92" width="93.0"/>
-    <col customWidth="1" min="93" max="93" width="86.75"/>
-    <col customWidth="1" min="94" max="94" width="86.25"/>
-    <col customWidth="1" min="95" max="95" width="80.75"/>
-    <col customWidth="1" min="96" max="96" width="80.25"/>
-    <col customWidth="1" min="97" max="97" width="97.13"/>
-    <col customWidth="1" min="98" max="98" width="96.63"/>
-    <col customWidth="1" min="99" max="99" width="89.38"/>
-    <col customWidth="1" min="100" max="100" width="88.88"/>
-    <col customWidth="1" min="101" max="101" width="96.38"/>
-    <col customWidth="1" min="102" max="102" width="95.88"/>
-    <col customWidth="1" min="103" max="103" width="80.5"/>
-    <col customWidth="1" min="104" max="104" width="80.0"/>
-    <col customWidth="1" min="105" max="105" width="98.63"/>
-    <col customWidth="1" min="106" max="106" width="98.13"/>
-    <col customWidth="1" min="107" max="107" width="98.63"/>
-    <col customWidth="1" min="108" max="108" width="98.13"/>
-    <col customWidth="1" min="109" max="109" width="93.0"/>
-    <col customWidth="1" min="110" max="110" width="92.5"/>
-    <col customWidth="1" min="111" max="111" width="91.13"/>
-    <col customWidth="1" min="112" max="112" width="90.75"/>
-    <col customWidth="1" min="113" max="113" width="98.88"/>
-    <col customWidth="1" min="114" max="114" width="98.38"/>
-    <col customWidth="1" min="115" max="115" width="93.88"/>
-    <col customWidth="1" min="116" max="116" width="93.38"/>
-    <col customWidth="1" min="117" max="117" width="94.63"/>
-    <col customWidth="1" min="118" max="118" width="94.13"/>
-    <col customWidth="1" min="119" max="119" width="94.0"/>
-    <col customWidth="1" min="120" max="121" width="93.63"/>
-    <col customWidth="1" min="122" max="122" width="93.13"/>
-    <col customWidth="1" min="123" max="123" width="101.63"/>
-    <col customWidth="1" min="124" max="124" width="101.13"/>
-    <col customWidth="1" min="125" max="125" width="102.13"/>
-    <col customWidth="1" min="126" max="126" width="101.75"/>
-    <col customWidth="1" min="127" max="127" width="98.75"/>
-    <col customWidth="1" min="128" max="128" width="98.25"/>
-    <col customWidth="1" min="129" max="129" width="100.13"/>
-    <col customWidth="1" min="130" max="130" width="99.63"/>
-    <col customWidth="1" min="131" max="131" width="98.0"/>
-    <col customWidth="1" min="132" max="132" width="97.5"/>
-    <col customWidth="1" min="133" max="133" width="101.38"/>
-    <col customWidth="1" min="134" max="134" width="101.0"/>
-    <col customWidth="1" min="135" max="135" width="100.88"/>
-    <col customWidth="1" min="136" max="136" width="100.38"/>
-    <col customWidth="1" min="137" max="137" width="89.5"/>
-    <col customWidth="1" min="138" max="138" width="89.0"/>
-    <col customWidth="1" min="139" max="139" width="100.63"/>
-    <col customWidth="1" min="140" max="140" width="100.13"/>
-    <col customWidth="1" min="141" max="141" width="80.25"/>
-    <col customWidth="1" min="142" max="142" width="79.75"/>
-    <col customWidth="1" min="143" max="143" width="80.75"/>
-    <col customWidth="1" min="144" max="144" width="80.25"/>
-    <col customWidth="1" min="145" max="145" width="80.13"/>
-    <col customWidth="1" min="146" max="146" width="79.63"/>
-    <col customWidth="1" min="147" max="147" width="83.5"/>
-    <col customWidth="1" min="148" max="148" width="83.13"/>
-    <col customWidth="1" min="149" max="149" width="83.25"/>
-    <col customWidth="1" min="150" max="150" width="82.88"/>
-    <col customWidth="1" min="151" max="151" width="75.5"/>
-    <col customWidth="1" min="152" max="152" width="75.13"/>
-    <col customWidth="1" min="153" max="153" width="85.25"/>
-    <col customWidth="1" min="154" max="154" width="84.88"/>
-    <col customWidth="1" min="155" max="155" width="85.0"/>
-    <col customWidth="1" min="156" max="156" width="84.5"/>
-    <col customWidth="1" min="157" max="157" width="86.88"/>
-    <col customWidth="1" min="158" max="158" width="86.38"/>
-    <col customWidth="1" min="159" max="159" width="85.13"/>
-    <col customWidth="1" min="160" max="160" width="84.75"/>
-    <col customWidth="1" min="161" max="161" width="76.75"/>
-    <col customWidth="1" min="162" max="162" width="76.25"/>
-    <col customWidth="1" min="163" max="163" width="85.0"/>
-    <col customWidth="1" min="164" max="164" width="84.5"/>
-    <col customWidth="1" min="165" max="165" width="79.5"/>
-    <col customWidth="1" min="166" max="166" width="79.13"/>
-    <col customWidth="1" min="167" max="167" width="82.13"/>
-    <col customWidth="1" min="168" max="168" width="81.63"/>
-    <col customWidth="1" min="169" max="169" width="84.63"/>
-    <col customWidth="1" min="170" max="170" width="84.13"/>
-    <col customWidth="1" min="171" max="171" width="84.0"/>
-    <col customWidth="1" min="172" max="172" width="83.63"/>
-    <col customWidth="1" min="173" max="173" width="84.13"/>
-    <col customWidth="1" min="174" max="174" width="83.75"/>
-    <col customWidth="1" min="175" max="175" width="75.0"/>
-    <col customWidth="1" min="176" max="176" width="74.5"/>
-    <col customWidth="1" min="177" max="177" width="85.63"/>
-    <col customWidth="1" min="178" max="178" width="85.13"/>
-    <col customWidth="1" min="179" max="179" width="88.25"/>
-    <col customWidth="1" min="180" max="180" width="87.75"/>
-    <col customWidth="1" min="181" max="181" width="83.13"/>
-    <col customWidth="1" min="182" max="182" width="82.75"/>
-    <col customWidth="1" min="183" max="183" width="82.88"/>
-    <col customWidth="1" min="184" max="184" width="82.38"/>
-    <col customWidth="1" min="185" max="185" width="90.75"/>
-    <col customWidth="1" min="186" max="186" width="90.25"/>
-    <col customWidth="1" min="187" max="187" width="83.25"/>
-    <col customWidth="1" min="188" max="188" width="82.75"/>
-    <col customWidth="1" min="189" max="189" width="77.63"/>
-    <col customWidth="1" min="190" max="190" width="77.13"/>
-    <col customWidth="1" min="191" max="191" width="84.38"/>
-    <col customWidth="1" min="192" max="192" width="83.88"/>
-    <col customWidth="1" min="193" max="193" width="79.25"/>
-    <col customWidth="1" min="194" max="194" width="78.75"/>
-    <col customWidth="1" min="195" max="195" width="73.63"/>
-    <col customWidth="1" min="196" max="196" width="73.25"/>
-    <col customWidth="1" min="197" max="197" width="87.13"/>
-    <col customWidth="1" min="198" max="198" width="86.63"/>
-    <col customWidth="1" min="199" max="199" width="84.13"/>
-    <col customWidth="1" min="200" max="200" width="83.63"/>
-    <col customWidth="1" min="201" max="201" width="90.13"/>
-    <col customWidth="1" min="202" max="202" width="89.63"/>
-    <col customWidth="1" min="203" max="203" width="91.88"/>
-    <col customWidth="1" min="204" max="204" width="91.38"/>
-    <col customWidth="1" min="205" max="205" width="80.5"/>
-    <col customWidth="1" min="206" max="206" width="80.0"/>
-    <col customWidth="1" min="207" max="207" width="89.38"/>
-    <col customWidth="1" min="208" max="208" width="89.0"/>
-    <col customWidth="1" min="209" max="209" width="88.5"/>
-    <col customWidth="1" min="210" max="210" width="88.0"/>
-    <col customWidth="1" min="211" max="211" width="94.13"/>
-    <col customWidth="1" min="212" max="212" width="93.63"/>
-    <col customWidth="1" min="213" max="213" width="93.25"/>
-    <col customWidth="1" min="214" max="214" width="92.75"/>
-    <col customWidth="1" min="215" max="215" width="88.38"/>
-    <col customWidth="1" min="216" max="216" width="87.88"/>
-    <col customWidth="1" min="217" max="217" width="90.75"/>
-    <col customWidth="1" min="218" max="218" width="90.25"/>
-    <col customWidth="1" min="219" max="219" width="88.75"/>
-    <col customWidth="1" min="220" max="220" width="88.25"/>
-    <col customWidth="1" min="221" max="221" width="91.0"/>
-    <col customWidth="1" min="222" max="222" width="90.5"/>
-    <col customWidth="1" min="223" max="223" width="89.38"/>
-    <col customWidth="1" min="224" max="224" width="88.88"/>
-    <col customWidth="1" min="225" max="225" width="84.38"/>
-    <col customWidth="1" min="226" max="226" width="84.0"/>
-    <col customWidth="1" min="227" max="227" width="92.13"/>
-    <col customWidth="1" min="228" max="228" width="91.63"/>
-    <col customWidth="1" min="229" max="229" width="93.75"/>
-    <col customWidth="1" min="230" max="230" width="93.25"/>
-    <col customWidth="1" min="231" max="231" width="92.13"/>
-    <col customWidth="1" min="232" max="232" width="91.75"/>
-    <col customWidth="1" min="233" max="233" width="91.0"/>
-    <col customWidth="1" min="234" max="234" width="90.63"/>
-    <col customWidth="1" min="235" max="235" width="85.38"/>
-    <col customWidth="1" min="236" max="236" width="85.0"/>
-    <col customWidth="1" min="237" max="237" width="88.0"/>
-    <col customWidth="1" min="238" max="238" width="87.5"/>
-    <col customWidth="1" min="239" max="239" width="86.75"/>
-    <col customWidth="1" min="240" max="240" width="86.25"/>
-    <col customWidth="1" min="241" max="241" width="84.88"/>
-    <col customWidth="1" min="242" max="242" width="84.5"/>
-    <col customWidth="1" min="243" max="243" width="88.88"/>
-    <col customWidth="1" min="244" max="244" width="88.5"/>
-    <col customWidth="1" min="245" max="245" width="84.63"/>
-    <col customWidth="1" min="246" max="246" width="84.25"/>
-    <col customWidth="1" min="247" max="247" width="84.38"/>
-    <col customWidth="1" min="248" max="248" width="83.88"/>
-    <col customWidth="1" min="249" max="249" width="81.75"/>
-    <col customWidth="1" min="250" max="250" width="81.25"/>
-    <col customWidth="1" min="251" max="251" width="88.25"/>
-    <col customWidth="1" min="252" max="252" width="87.75"/>
-    <col customWidth="1" min="253" max="253" width="79.88"/>
-    <col customWidth="1" min="254" max="254" width="79.5"/>
-    <col customWidth="1" min="255" max="255" width="84.0"/>
-    <col customWidth="1" min="256" max="256" width="83.5"/>
-    <col customWidth="1" min="257" max="257" width="87.0"/>
-    <col customWidth="1" min="258" max="258" width="86.5"/>
-    <col customWidth="1" min="259" max="259" width="88.38"/>
-    <col customWidth="1" min="260" max="260" width="88.0"/>
-    <col customWidth="1" min="261" max="261" width="90.75"/>
-    <col customWidth="1" min="262" max="262" width="90.25"/>
-    <col customWidth="1" min="263" max="263" width="90.5"/>
-    <col customWidth="1" min="264" max="264" width="90.0"/>
-    <col customWidth="1" min="265" max="265" width="90.63"/>
-    <col customWidth="1" min="266" max="266" width="90.13"/>
-    <col customWidth="1" min="267" max="267" width="83.63"/>
-    <col customWidth="1" min="268" max="268" width="83.13"/>
-    <col customWidth="1" min="269" max="269" width="83.88"/>
-    <col customWidth="1" min="270" max="270" width="83.38"/>
-    <col customWidth="1" min="271" max="271" width="86.38"/>
-    <col customWidth="1" min="272" max="272" width="85.88"/>
-    <col customWidth="1" min="273" max="273" width="91.88"/>
-    <col customWidth="1" min="274" max="274" width="91.38"/>
-    <col customWidth="1" min="275" max="275" width="90.25"/>
-    <col customWidth="1" min="276" max="276" width="89.88"/>
-    <col customWidth="1" min="277" max="277" width="89.5"/>
-    <col customWidth="1" min="278" max="278" width="89.0"/>
-    <col customWidth="1" min="279" max="279" width="94.25"/>
-    <col customWidth="1" min="280" max="280" width="93.75"/>
-    <col customWidth="1" min="281" max="281" width="86.5"/>
-    <col customWidth="1" min="282" max="282" width="86.0"/>
-    <col customWidth="1" min="283" max="283" width="87.13"/>
-    <col customWidth="1" min="284" max="284" width="86.63"/>
-    <col customWidth="1" min="285" max="285" width="90.88"/>
-    <col customWidth="1" min="286" max="286" width="90.38"/>
-    <col customWidth="1" min="287" max="287" width="87.38"/>
-    <col customWidth="1" min="288" max="288" width="86.88"/>
-    <col customWidth="1" min="289" max="289" width="84.88"/>
-    <col customWidth="1" min="290" max="290" width="84.38"/>
-    <col customWidth="1" min="291" max="291" width="92.0"/>
-    <col customWidth="1" min="292" max="292" width="91.5"/>
-    <col customWidth="1" min="293" max="293" width="92.25"/>
-    <col customWidth="1" min="294" max="294" width="91.88"/>
-    <col customWidth="1" min="295" max="295" width="77.75"/>
-    <col customWidth="1" min="296" max="296" width="77.38"/>
-    <col customWidth="1" min="297" max="297" width="69.63"/>
-    <col customWidth="1" min="298" max="298" width="69.13"/>
-    <col customWidth="1" min="299" max="299" width="71.63"/>
-    <col customWidth="1" min="300" max="300" width="71.13"/>
-    <col customWidth="1" min="301" max="301" width="72.75"/>
-    <col customWidth="1" min="302" max="302" width="72.25"/>
-    <col customWidth="1" min="303" max="303" width="71.75"/>
-    <col customWidth="1" min="304" max="304" width="71.25"/>
-    <col customWidth="1" min="305" max="305" width="72.0"/>
-    <col customWidth="1" min="306" max="306" width="71.5"/>
-    <col customWidth="1" min="307" max="307" width="67.38"/>
-    <col customWidth="1" min="308" max="308" width="66.88"/>
-    <col customWidth="1" min="309" max="309" width="69.88"/>
-    <col customWidth="1" min="310" max="310" width="69.5"/>
-    <col customWidth="1" min="311" max="311" width="70.63"/>
-    <col customWidth="1" min="312" max="312" width="70.13"/>
-    <col customWidth="1" min="313" max="313" width="68.25"/>
-    <col customWidth="1" min="314" max="314" width="67.75"/>
-    <col customWidth="1" min="315" max="315" width="82.5"/>
-    <col customWidth="1" min="316" max="316" width="82.13"/>
-    <col customWidth="1" min="317" max="317" width="76.13"/>
-    <col customWidth="1" min="318" max="318" width="75.63"/>
-    <col customWidth="1" min="319" max="319" width="76.38"/>
-    <col customWidth="1" min="320" max="320" width="75.88"/>
-    <col customWidth="1" min="321" max="321" width="72.88"/>
-    <col customWidth="1" min="322" max="322" width="72.5"/>
-    <col customWidth="1" min="323" max="323" width="77.13"/>
-    <col customWidth="1" min="324" max="324" width="76.63"/>
-    <col customWidth="1" min="325" max="325" width="82.13"/>
-    <col customWidth="1" min="326" max="326" width="81.63"/>
-    <col customWidth="1" min="327" max="327" width="63.0"/>
-    <col customWidth="1" min="328" max="328" width="62.63"/>
-    <col customWidth="1" min="329" max="329" width="71.38"/>
-    <col customWidth="1" min="330" max="330" width="71.0"/>
-    <col customWidth="1" min="331" max="331" width="75.25"/>
-    <col customWidth="1" min="332" max="332" width="74.75"/>
-    <col customWidth="1" min="333" max="333" width="71.88"/>
-    <col customWidth="1" min="334" max="334" width="71.38"/>
-    <col customWidth="1" min="335" max="335" width="67.63"/>
-    <col customWidth="1" min="336" max="336" width="67.13"/>
-    <col customWidth="1" min="337" max="337" width="66.75"/>
-    <col customWidth="1" min="338" max="338" width="66.38"/>
-    <col customWidth="1" min="339" max="339" width="71.13"/>
-    <col customWidth="1" min="340" max="340" width="70.63"/>
-    <col customWidth="1" min="341" max="341" width="72.25"/>
-    <col customWidth="1" min="342" max="342" width="71.75"/>
-    <col customWidth="1" min="343" max="343" width="79.38"/>
-    <col customWidth="1" min="344" max="344" width="79.0"/>
-    <col customWidth="1" min="345" max="345" width="73.0"/>
-    <col customWidth="1" min="346" max="346" width="72.5"/>
-    <col customWidth="1" min="347" max="347" width="84.63"/>
-    <col customWidth="1" min="348" max="348" width="84.13"/>
-    <col customWidth="1" min="349" max="349" width="82.25"/>
-    <col customWidth="1" min="350" max="350" width="81.75"/>
-    <col customWidth="1" min="351" max="351" width="76.0"/>
-    <col customWidth="1" min="352" max="352" width="75.63"/>
-    <col customWidth="1" min="353" max="353" width="84.5"/>
-    <col customWidth="1" min="354" max="354" width="84.13"/>
-    <col customWidth="1" min="355" max="355" width="76.5"/>
-    <col customWidth="1" min="356" max="356" width="76.0"/>
-    <col customWidth="1" min="357" max="357" width="70.0"/>
-    <col customWidth="1" min="358" max="358" width="69.5"/>
-    <col customWidth="1" min="359" max="359" width="76.0"/>
-    <col customWidth="1" min="360" max="360" width="75.63"/>
-    <col customWidth="1" min="361" max="361" width="76.63"/>
-    <col customWidth="1" min="362" max="362" width="76.13"/>
-    <col customWidth="1" min="363" max="363" width="78.38"/>
-    <col customWidth="1" min="364" max="364" width="78.0"/>
-    <col customWidth="1" min="365" max="365" width="81.13"/>
-    <col customWidth="1" min="366" max="366" width="80.63"/>
-    <col customWidth="1" min="367" max="367" width="76.38"/>
-    <col customWidth="1" min="368" max="368" width="76.0"/>
-    <col customWidth="1" min="369" max="369" width="68.88"/>
-    <col customWidth="1" min="370" max="370" width="68.38"/>
-    <col customWidth="1" min="371" max="371" width="81.0"/>
-    <col customWidth="1" min="372" max="372" width="80.63"/>
-    <col customWidth="1" min="373" max="373" width="78.25"/>
-    <col customWidth="1" min="374" max="374" width="77.88"/>
-    <col customWidth="1" min="375" max="375" width="74.75"/>
-    <col customWidth="1" min="376" max="376" width="74.25"/>
-    <col customWidth="1" min="377" max="377" width="78.88"/>
-    <col customWidth="1" min="378" max="378" width="78.5"/>
-    <col customWidth="1" min="379" max="379" width="71.88"/>
-    <col customWidth="1" min="380" max="380" width="71.5"/>
-    <col customWidth="1" min="381" max="381" width="65.13"/>
-    <col customWidth="1" min="382" max="382" width="64.75"/>
-    <col customWidth="1" min="383" max="383" width="78.0"/>
-    <col customWidth="1" min="384" max="384" width="77.5"/>
-    <col customWidth="1" min="385" max="385" width="69.88"/>
-    <col customWidth="1" min="386" max="386" width="69.38"/>
-    <col customWidth="1" min="387" max="387" width="73.75"/>
-    <col customWidth="1" min="388" max="388" width="73.25"/>
-    <col customWidth="1" min="389" max="389" width="78.0"/>
-    <col customWidth="1" min="390" max="390" width="77.5"/>
-    <col customWidth="1" min="391" max="391" width="75.5"/>
-    <col customWidth="1" min="392" max="392" width="75.13"/>
-    <col customWidth="1" min="393" max="393" width="81.63"/>
-    <col customWidth="1" min="394" max="394" width="81.25"/>
-    <col customWidth="1" min="395" max="395" width="82.63"/>
-    <col customWidth="1" min="396" max="396" width="82.13"/>
-    <col customWidth="1" min="397" max="397" width="77.13"/>
-    <col customWidth="1" min="398" max="398" width="76.63"/>
-    <col customWidth="1" min="399" max="399" width="76.75"/>
-    <col customWidth="1" min="400" max="400" width="76.38"/>
-    <col customWidth="1" min="401" max="401" width="72.63"/>
-    <col customWidth="1" min="402" max="402" width="72.13"/>
-    <col customWidth="1" min="403" max="403" width="70.5"/>
-    <col customWidth="1" min="404" max="405" width="70.13"/>
-    <col customWidth="1" min="406" max="406" width="69.63"/>
-    <col customWidth="1" min="407" max="407" width="75.38"/>
-    <col customWidth="1" min="408" max="408" width="74.88"/>
-    <col customWidth="1" min="409" max="409" width="75.63"/>
-    <col customWidth="1" min="410" max="410" width="75.13"/>
-    <col customWidth="1" min="411" max="411" width="82.25"/>
-    <col customWidth="1" min="412" max="412" width="81.88"/>
-    <col customWidth="1" min="413" max="413" width="74.63"/>
-    <col customWidth="1" min="414" max="414" width="74.13"/>
-    <col customWidth="1" min="415" max="415" width="79.75"/>
-    <col customWidth="1" min="416" max="416" width="79.25"/>
-    <col customWidth="1" min="417" max="417" width="72.13"/>
-    <col customWidth="1" min="418" max="418" width="71.75"/>
-    <col customWidth="1" min="419" max="419" width="77.5"/>
-    <col customWidth="1" min="420" max="420" width="77.13"/>
-    <col customWidth="1" min="421" max="421" width="85.0"/>
-    <col customWidth="1" min="422" max="422" width="84.63"/>
-    <col customWidth="1" min="423" max="423" width="85.25"/>
-    <col customWidth="1" min="424" max="424" width="84.75"/>
-    <col customWidth="1" min="425" max="425" width="80.88"/>
-    <col customWidth="1" min="426" max="426" width="80.38"/>
-    <col customWidth="1" min="427" max="427" width="80.75"/>
-    <col customWidth="1" min="428" max="428" width="80.38"/>
-    <col customWidth="1" min="429" max="430" width="82.88"/>
-    <col customWidth="1" min="431" max="432" width="78.88"/>
-    <col customWidth="1" min="433" max="434" width="73.88"/>
-    <col customWidth="1" min="435" max="436" width="84.63"/>
-    <col customWidth="1" min="437" max="438" width="77.75"/>
-    <col customWidth="1" min="439" max="440" width="76.13"/>
-    <col customWidth="1" min="441" max="442" width="82.0"/>
-    <col customWidth="1" min="443" max="444" width="78.5"/>
-    <col customWidth="1" min="445" max="446" width="79.38"/>
-    <col customWidth="1" min="447" max="448" width="80.5"/>
-    <col customWidth="1" min="449" max="450" width="80.38"/>
-    <col customWidth="1" min="451" max="452" width="80.75"/>
-    <col customWidth="1" min="453" max="454" width="73.75"/>
-    <col customWidth="1" min="455" max="456" width="82.75"/>
-    <col customWidth="1" min="457" max="458" width="76.0"/>
-    <col customWidth="1" min="459" max="460" width="80.5"/>
-    <col customWidth="1" min="461" max="462" width="75.88"/>
-    <col customWidth="1" min="463" max="464" width="71.63"/>
-    <col customWidth="1" min="465" max="466" width="85.75"/>
-    <col customWidth="1" min="467" max="468" width="81.25"/>
-    <col customWidth="1" min="469" max="470" width="79.25"/>
-    <col customWidth="1" min="471" max="472" width="84.75"/>
-    <col customWidth="1" min="473" max="474" width="78.63"/>
-    <col customWidth="1" min="475" max="476" width="84.88"/>
-    <col customWidth="1" min="477" max="478" width="80.88"/>
-    <col customWidth="1" min="479" max="480" width="85.13"/>
-    <col customWidth="1" min="481" max="482" width="82.5"/>
-    <col customWidth="1" min="483" max="484" width="80.38"/>
-    <col customWidth="1" min="485" max="486" width="79.88"/>
-    <col customWidth="1" min="487" max="488" width="82.75"/>
-    <col customWidth="1" min="489" max="490" width="83.38"/>
-    <col customWidth="1" min="491" max="492" width="63.25"/>
-    <col customWidth="1" min="493" max="494" width="80.38"/>
-    <col customWidth="1" min="495" max="495" width="87.38"/>
-    <col customWidth="1" min="496" max="496" width="87.0"/>
-    <col customWidth="1" min="497" max="497" width="88.38"/>
-    <col customWidth="1" min="498" max="498" width="87.88"/>
-    <col customWidth="1" min="499" max="499" width="88.13"/>
-    <col customWidth="1" min="500" max="500" width="87.63"/>
-    <col customWidth="1" min="501" max="501" width="81.75"/>
-    <col customWidth="1" min="502" max="502" width="81.38"/>
-    <col customWidth="1" min="503" max="503" width="89.25"/>
-    <col customWidth="1" min="504" max="504" width="88.88"/>
-    <col customWidth="1" min="505" max="505" width="90.13"/>
-    <col customWidth="1" min="506" max="506" width="89.75"/>
-    <col customWidth="1" min="507" max="507" width="89.88"/>
-    <col customWidth="1" min="508" max="508" width="89.38"/>
-    <col customWidth="1" min="509" max="509" width="80.88"/>
-    <col customWidth="1" min="510" max="510" width="80.38"/>
-    <col customWidth="1" min="511" max="511" width="88.5"/>
-    <col customWidth="1" min="512" max="512" width="88.0"/>
-    <col customWidth="1" min="513" max="513" width="86.88"/>
-    <col customWidth="1" min="514" max="514" width="86.5"/>
-    <col customWidth="1" min="515" max="515" width="90.63"/>
-    <col customWidth="1" min="516" max="516" width="90.25"/>
-    <col customWidth="1" min="517" max="517" width="86.88"/>
-    <col customWidth="1" min="518" max="518" width="86.5"/>
-    <col customWidth="1" min="519" max="519" width="87.13"/>
-    <col customWidth="1" min="520" max="520" width="86.75"/>
-    <col customWidth="1" min="521" max="521" width="86.5"/>
-    <col customWidth="1" min="522" max="522" width="86.0"/>
-    <col customWidth="1" min="523" max="523" width="89.63"/>
-    <col customWidth="1" min="524" max="524" width="89.13"/>
-    <col customWidth="1" min="525" max="525" width="87.0"/>
-    <col customWidth="1" min="526" max="526" width="86.63"/>
-    <col customWidth="1" min="527" max="527" width="85.75"/>
-    <col customWidth="1" min="528" max="528" width="85.38"/>
-    <col customWidth="1" min="529" max="529" width="86.0"/>
-    <col customWidth="1" min="530" max="530" width="85.63"/>
-    <col customWidth="1" min="531" max="531" width="86.88"/>
-    <col customWidth="1" min="532" max="532" width="86.38"/>
-    <col customWidth="1" min="533" max="533" width="80.5"/>
-    <col customWidth="1" min="534" max="534" width="80.0"/>
-    <col customWidth="1" min="535" max="535" width="79.88"/>
-    <col customWidth="1" min="536" max="536" width="79.38"/>
-    <col customWidth="1" min="537" max="537" width="68.63"/>
-    <col customWidth="1" min="538" max="538" width="68.25"/>
-    <col customWidth="1" min="539" max="539" width="72.13"/>
-    <col customWidth="1" min="540" max="540" width="71.75"/>
-    <col customWidth="1" min="541" max="541" width="81.75"/>
-    <col customWidth="1" min="542" max="542" width="81.25"/>
-    <col customWidth="1" min="543" max="543" width="80.13"/>
-    <col customWidth="1" min="544" max="544" width="79.75"/>
-    <col customWidth="1" min="545" max="545" width="81.0"/>
-    <col customWidth="1" min="546" max="547" width="80.5"/>
-    <col customWidth="1" min="548" max="548" width="80.13"/>
-    <col customWidth="1" min="549" max="549" width="84.0"/>
-    <col customWidth="1" min="550" max="550" width="83.63"/>
-    <col customWidth="1" min="551" max="551" width="91.25"/>
-    <col customWidth="1" min="552" max="552" width="90.75"/>
-    <col customWidth="1" min="553" max="553" width="88.25"/>
-    <col customWidth="1" min="554" max="554" width="87.75"/>
-    <col customWidth="1" min="555" max="555" width="81.38"/>
-    <col customWidth="1" min="556" max="556" width="80.88"/>
-    <col customWidth="1" min="557" max="557" width="89.0"/>
-    <col customWidth="1" min="558" max="558" width="88.63"/>
-    <col customWidth="1" min="559" max="559" width="91.13"/>
-    <col customWidth="1" min="560" max="560" width="90.63"/>
-    <col customWidth="1" min="561" max="561" width="88.63"/>
-    <col customWidth="1" min="562" max="562" width="88.13"/>
-    <col customWidth="1" min="563" max="563" width="90.25"/>
-    <col customWidth="1" min="564" max="564" width="89.75"/>
-    <col customWidth="1" min="565" max="565" width="85.13"/>
-    <col customWidth="1" min="566" max="566" width="84.63"/>
-    <col customWidth="1" min="567" max="567" width="87.88"/>
-    <col customWidth="1" min="568" max="568" width="87.38"/>
-    <col customWidth="1" min="569" max="569" width="81.88"/>
-    <col customWidth="1" min="570" max="570" width="81.38"/>
-    <col customWidth="1" min="571" max="571" width="82.63"/>
-    <col customWidth="1" min="572" max="572" width="82.13"/>
-    <col customWidth="1" min="573" max="573" width="96.5"/>
-    <col customWidth="1" min="574" max="574" width="96.0"/>
-    <col customWidth="1" min="575" max="575" width="80.13"/>
-    <col customWidth="1" min="576" max="576" width="79.63"/>
-    <col customWidth="1" min="577" max="577" width="94.88"/>
-    <col customWidth="1" min="578" max="578" width="94.38"/>
-    <col customWidth="1" min="579" max="579" width="86.25"/>
-    <col customWidth="1" min="580" max="580" width="85.75"/>
-    <col customWidth="1" min="581" max="581" width="92.25"/>
-    <col customWidth="1" min="582" max="582" width="91.88"/>
-    <col customWidth="1" min="583" max="583" width="87.38"/>
-    <col customWidth="1" min="584" max="584" width="86.88"/>
-    <col customWidth="1" min="585" max="585" width="84.25"/>
-    <col customWidth="1" min="586" max="586" width="83.88"/>
-    <col customWidth="1" min="587" max="587" width="90.13"/>
-    <col customWidth="1" min="588" max="588" width="89.63"/>
-    <col customWidth="1" min="589" max="589" width="84.0"/>
-    <col customWidth="1" min="590" max="590" width="83.63"/>
-    <col customWidth="1" min="591" max="591" width="88.5"/>
-    <col customWidth="1" min="592" max="592" width="88.0"/>
-    <col customWidth="1" min="593" max="593" width="89.38"/>
-    <col customWidth="1" min="594" max="594" width="88.88"/>
-    <col customWidth="1" min="595" max="595" width="90.75"/>
-    <col customWidth="1" min="596" max="596" width="90.25"/>
-    <col customWidth="1" min="597" max="597" width="77.38"/>
-    <col customWidth="1" min="598" max="598" width="76.88"/>
-    <col customWidth="1" min="599" max="599" width="85.25"/>
-    <col customWidth="1" min="600" max="600" width="84.88"/>
-    <col customWidth="1" min="601" max="601" width="87.63"/>
-    <col customWidth="1" min="602" max="602" width="87.25"/>
-    <col customWidth="1" min="603" max="603" width="91.13"/>
-    <col customWidth="1" min="604" max="604" width="90.63"/>
-    <col customWidth="1" min="605" max="605" width="90.13"/>
-    <col customWidth="1" min="606" max="606" width="89.63"/>
-    <col customWidth="1" min="607" max="607" width="93.63"/>
-    <col customWidth="1" min="608" max="608" width="93.13"/>
-    <col customWidth="1" min="609" max="609" width="76.5"/>
-    <col customWidth="1" min="610" max="610" width="76.13"/>
-    <col customWidth="1" min="611" max="611" width="85.88"/>
-    <col customWidth="1" min="612" max="612" width="85.5"/>
-    <col customWidth="1" min="613" max="613" width="89.0"/>
-    <col customWidth="1" min="614" max="614" width="88.63"/>
-    <col customWidth="1" min="615" max="615" width="85.88"/>
-    <col customWidth="1" min="616" max="616" width="85.38"/>
-    <col customWidth="1" min="617" max="617" width="87.88"/>
-    <col customWidth="1" min="618" max="618" width="87.5"/>
-    <col customWidth="1" min="619" max="619" width="91.13"/>
-    <col customWidth="1" min="620" max="621" width="90.63"/>
-    <col customWidth="1" min="622" max="622" width="90.13"/>
-    <col customWidth="1" min="623" max="623" width="90.75"/>
-    <col customWidth="1" min="624" max="624" width="90.25"/>
-    <col customWidth="1" min="625" max="625" width="85.0"/>
-    <col customWidth="1" min="626" max="626" width="84.5"/>
-    <col customWidth="1" min="627" max="627" width="89.38"/>
-    <col customWidth="1" min="628" max="628" width="88.88"/>
-    <col customWidth="1" min="629" max="629" width="92.13"/>
-    <col customWidth="1" min="630" max="630" width="91.63"/>
-    <col customWidth="1" min="631" max="631" width="90.25"/>
-    <col customWidth="1" min="632" max="632" width="89.88"/>
-    <col customWidth="1" min="633" max="633" width="87.75"/>
-    <col customWidth="1" min="634" max="634" width="87.25"/>
-    <col customWidth="1" min="635" max="635" width="90.0"/>
-    <col customWidth="1" min="636" max="636" width="89.5"/>
-    <col customWidth="1" min="637" max="637" width="92.25"/>
-    <col customWidth="1" min="638" max="638" width="91.88"/>
-    <col customWidth="1" min="639" max="639" width="93.5"/>
-    <col customWidth="1" min="640" max="640" width="93.0"/>
-    <col customWidth="1" min="641" max="641" width="91.63"/>
-    <col customWidth="1" min="642" max="642" width="91.13"/>
-    <col customWidth="1" min="643" max="643" width="86.0"/>
-    <col customWidth="1" min="644" max="644" width="85.5"/>
-    <col customWidth="1" min="645" max="645" width="83.5"/>
-    <col customWidth="1" min="646" max="646" width="83.0"/>
-    <col customWidth="1" min="647" max="647" width="88.88"/>
-    <col customWidth="1" min="648" max="648" width="88.38"/>
-    <col customWidth="1" min="649" max="649" width="90.5"/>
-    <col customWidth="1" min="650" max="650" width="90.0"/>
-    <col customWidth="1" min="651" max="651" width="89.38"/>
-    <col customWidth="1" min="652" max="652" width="89.0"/>
-    <col customWidth="1" min="653" max="653" width="74.38"/>
-    <col customWidth="1" min="654" max="654" width="73.88"/>
-    <col customWidth="1" min="655" max="655" width="86.38"/>
-    <col customWidth="1" min="656" max="656" width="85.88"/>
-    <col customWidth="1" min="657" max="657" width="92.25"/>
-    <col customWidth="1" min="658" max="658" width="91.75"/>
-    <col customWidth="1" min="659" max="659" width="87.88"/>
-    <col customWidth="1" min="660" max="660" width="87.38"/>
-    <col customWidth="1" min="661" max="661" width="89.25"/>
-    <col customWidth="1" min="662" max="662" width="88.75"/>
-    <col customWidth="1" min="663" max="663" width="85.63"/>
-    <col customWidth="1" min="664" max="664" width="85.13"/>
-    <col customWidth="1" min="665" max="665" width="95.88"/>
-    <col customWidth="1" min="666" max="666" width="95.5"/>
-    <col customWidth="1" min="667" max="667" width="97.75"/>
-    <col customWidth="1" min="668" max="668" width="97.25"/>
-    <col customWidth="1" min="669" max="669" width="94.63"/>
-    <col customWidth="1" min="670" max="670" width="94.13"/>
-    <col customWidth="1" min="671" max="671" width="96.25"/>
-    <col customWidth="1" min="672" max="672" width="95.88"/>
-    <col customWidth="1" min="673" max="673" width="93.88"/>
-    <col customWidth="1" min="674" max="674" width="93.38"/>
-    <col customWidth="1" min="675" max="675" width="89.25"/>
-    <col customWidth="1" min="676" max="676" width="88.75"/>
-    <col customWidth="1" min="677" max="677" width="88.38"/>
-    <col customWidth="1" min="678" max="678" width="87.88"/>
-    <col customWidth="1" min="679" max="679" width="89.38"/>
-    <col customWidth="1" min="680" max="680" width="89.0"/>
-    <col customWidth="1" min="681" max="681" width="80.0"/>
-    <col customWidth="1" min="682" max="682" width="79.63"/>
-    <col customWidth="1" min="683" max="683" width="82.88"/>
-    <col customWidth="1" min="684" max="684" width="82.38"/>
-    <col customWidth="1" min="685" max="685" width="85.25"/>
-    <col customWidth="1" min="686" max="686" width="84.75"/>
-    <col customWidth="1" min="687" max="687" width="88.13"/>
-    <col customWidth="1" min="688" max="688" width="87.63"/>
-    <col customWidth="1" min="689" max="689" width="89.88"/>
-    <col customWidth="1" min="690" max="690" width="89.5"/>
-    <col customWidth="1" min="691" max="691" width="83.25"/>
-    <col customWidth="1" min="692" max="692" width="82.75"/>
-    <col customWidth="1" min="693" max="693" width="92.88"/>
-    <col customWidth="1" min="694" max="694" width="92.38"/>
-    <col customWidth="1" min="695" max="695" width="87.63"/>
-    <col customWidth="1" min="696" max="696" width="87.13"/>
-    <col customWidth="1" min="697" max="697" width="87.25"/>
-    <col customWidth="1" min="698" max="698" width="86.88"/>
-    <col customWidth="1" min="699" max="699" width="81.25"/>
-    <col customWidth="1" min="700" max="700" width="80.75"/>
-    <col customWidth="1" hidden="1" min="701" max="701" width="12.5"/>
+    <col customWidth="1" min="19" max="19" width="13.63"/>
+    <col customWidth="1" min="20" max="20" width="33.13"/>
+    <col customWidth="1" min="21" max="22" width="73.63"/>
+    <col customWidth="1" min="23" max="24" width="72.88"/>
+    <col customWidth="1" min="25" max="26" width="78.25"/>
+    <col customWidth="1" min="27" max="28" width="79.13"/>
+    <col customWidth="1" min="29" max="30" width="76.13"/>
+    <col customWidth="1" min="31" max="32" width="77.25"/>
+    <col customWidth="1" min="33" max="34" width="79.0"/>
+    <col customWidth="1" min="35" max="36" width="75.75"/>
+    <col customWidth="1" min="37" max="38" width="76.5"/>
+    <col customWidth="1" min="39" max="40" width="75.13"/>
+    <col customWidth="1" min="41" max="41" width="74.25"/>
+    <col customWidth="1" min="42" max="42" width="73.75"/>
+    <col customWidth="1" min="43" max="43" width="86.75"/>
+    <col customWidth="1" min="44" max="44" width="86.25"/>
+    <col customWidth="1" min="45" max="45" width="82.75"/>
+    <col customWidth="1" min="46" max="46" width="82.25"/>
+    <col customWidth="1" min="47" max="47" width="87.63"/>
+    <col customWidth="1" min="48" max="48" width="87.25"/>
+    <col customWidth="1" min="49" max="49" width="83.88"/>
+    <col customWidth="1" min="50" max="50" width="83.5"/>
+    <col customWidth="1" min="51" max="51" width="80.63"/>
+    <col customWidth="1" min="52" max="52" width="80.13"/>
+    <col customWidth="1" min="53" max="53" width="76.88"/>
+    <col customWidth="1" min="54" max="54" width="76.38"/>
+    <col customWidth="1" min="55" max="55" width="78.13"/>
+    <col customWidth="1" min="56" max="56" width="77.63"/>
+    <col customWidth="1" min="57" max="57" width="82.0"/>
+    <col customWidth="1" min="58" max="58" width="81.63"/>
+    <col customWidth="1" min="59" max="59" width="81.0"/>
+    <col customWidth="1" min="60" max="60" width="80.63"/>
+    <col customWidth="1" min="61" max="61" width="83.63"/>
+    <col customWidth="1" min="62" max="62" width="83.25"/>
+    <col customWidth="1" min="63" max="63" width="89.13"/>
+    <col customWidth="1" min="64" max="64" width="88.75"/>
+    <col customWidth="1" min="65" max="65" width="88.5"/>
+    <col customWidth="1" min="66" max="66" width="88.13"/>
+    <col customWidth="1" min="67" max="67" width="88.63"/>
+    <col customWidth="1" min="68" max="68" width="88.13"/>
+    <col customWidth="1" min="69" max="69" width="86.75"/>
+    <col customWidth="1" min="70" max="70" width="86.38"/>
+    <col customWidth="1" min="71" max="71" width="89.63"/>
+    <col customWidth="1" min="72" max="72" width="89.25"/>
+    <col customWidth="1" min="73" max="73" width="72.0"/>
+    <col customWidth="1" min="74" max="74" width="71.63"/>
+    <col customWidth="1" min="75" max="75" width="77.75"/>
+    <col customWidth="1" min="76" max="76" width="77.38"/>
+    <col customWidth="1" min="77" max="77" width="82.88"/>
+    <col customWidth="1" min="78" max="78" width="82.38"/>
+    <col customWidth="1" min="79" max="79" width="76.13"/>
+    <col customWidth="1" min="80" max="80" width="75.75"/>
+    <col customWidth="1" min="81" max="81" width="76.13"/>
+    <col customWidth="1" min="82" max="82" width="75.75"/>
+    <col customWidth="1" min="83" max="83" width="85.0"/>
+    <col customWidth="1" min="84" max="84" width="84.63"/>
+    <col customWidth="1" min="85" max="85" width="86.25"/>
+    <col customWidth="1" min="86" max="86" width="85.88"/>
+    <col customWidth="1" min="87" max="87" width="79.38"/>
+    <col customWidth="1" min="88" max="88" width="79.0"/>
+    <col customWidth="1" min="89" max="89" width="87.25"/>
+    <col customWidth="1" min="90" max="90" width="86.75"/>
+    <col customWidth="1" min="91" max="91" width="84.0"/>
+    <col customWidth="1" min="92" max="92" width="83.5"/>
+    <col customWidth="1" min="93" max="93" width="77.63"/>
+    <col customWidth="1" min="94" max="94" width="77.25"/>
+    <col customWidth="1" min="95" max="95" width="72.13"/>
+    <col customWidth="1" min="96" max="96" width="71.75"/>
+    <col customWidth="1" min="97" max="97" width="86.75"/>
+    <col customWidth="1" min="98" max="98" width="86.25"/>
+    <col customWidth="1" min="99" max="99" width="79.75"/>
+    <col customWidth="1" min="100" max="100" width="79.38"/>
+    <col customWidth="1" min="101" max="101" width="86.13"/>
+    <col customWidth="1" min="102" max="102" width="85.63"/>
+    <col customWidth="1" min="103" max="103" width="72.13"/>
+    <col customWidth="1" min="104" max="104" width="71.75"/>
+    <col customWidth="1" min="105" max="105" width="88.13"/>
+    <col customWidth="1" min="106" max="106" width="87.75"/>
+    <col customWidth="1" min="107" max="107" width="88.13"/>
+    <col customWidth="1" min="108" max="108" width="87.75"/>
+    <col customWidth="1" min="109" max="109" width="83.25"/>
+    <col customWidth="1" min="110" max="110" width="82.88"/>
+    <col customWidth="1" min="111" max="111" width="81.63"/>
+    <col customWidth="1" min="112" max="112" width="81.25"/>
+    <col customWidth="1" min="113" max="113" width="88.38"/>
+    <col customWidth="1" min="114" max="114" width="88.0"/>
+    <col customWidth="1" min="115" max="115" width="84.0"/>
+    <col customWidth="1" min="116" max="116" width="83.63"/>
+    <col customWidth="1" min="117" max="117" width="84.88"/>
+    <col customWidth="1" min="118" max="118" width="84.5"/>
+    <col customWidth="1" min="119" max="119" width="84.0"/>
+    <col customWidth="1" min="120" max="120" width="83.63"/>
+    <col customWidth="1" min="121" max="121" width="83.75"/>
+    <col customWidth="1" min="122" max="122" width="83.38"/>
+    <col customWidth="1" min="123" max="123" width="91.0"/>
+    <col customWidth="1" min="124" max="124" width="90.5"/>
+    <col customWidth="1" min="125" max="125" width="91.63"/>
+    <col customWidth="1" min="126" max="126" width="91.13"/>
+    <col customWidth="1" min="127" max="127" width="88.38"/>
+    <col customWidth="1" min="128" max="128" width="88.0"/>
+    <col customWidth="1" min="129" max="129" width="89.63"/>
+    <col customWidth="1" min="130" max="130" width="89.13"/>
+    <col customWidth="1" min="131" max="131" width="87.75"/>
+    <col customWidth="1" min="132" max="132" width="87.38"/>
+    <col customWidth="1" min="133" max="133" width="91.0"/>
+    <col customWidth="1" min="134" max="134" width="90.63"/>
+    <col customWidth="1" min="135" max="135" width="90.5"/>
+    <col customWidth="1" min="136" max="136" width="90.0"/>
+    <col customWidth="1" min="137" max="137" width="80.13"/>
+    <col customWidth="1" min="138" max="138" width="79.75"/>
+    <col customWidth="1" min="139" max="139" width="90.13"/>
+    <col customWidth="1" min="140" max="140" width="89.75"/>
+    <col customWidth="1" min="141" max="141" width="71.75"/>
+    <col customWidth="1" min="142" max="142" width="71.25"/>
+    <col customWidth="1" min="143" max="143" width="72.13"/>
+    <col customWidth="1" min="144" max="145" width="71.63"/>
+    <col customWidth="1" min="146" max="146" width="71.13"/>
+    <col customWidth="1" min="147" max="147" width="74.75"/>
+    <col customWidth="1" min="148" max="148" width="74.38"/>
+    <col customWidth="1" min="149" max="149" width="75.38"/>
+    <col customWidth="1" min="150" max="150" width="74.0"/>
+    <col customWidth="1" min="151" max="151" width="67.5"/>
+    <col customWidth="1" min="152" max="152" width="67.13"/>
+    <col customWidth="1" min="153" max="153" width="76.25"/>
+    <col customWidth="1" min="154" max="154" width="75.88"/>
+    <col customWidth="1" min="155" max="155" width="76.13"/>
+    <col customWidth="1" min="156" max="156" width="75.75"/>
+    <col customWidth="1" min="157" max="157" width="77.88"/>
+    <col customWidth="1" min="158" max="158" width="77.5"/>
+    <col customWidth="1" min="159" max="159" width="76.63"/>
+    <col customWidth="1" min="160" max="160" width="76.13"/>
+    <col customWidth="1" min="161" max="161" width="68.63"/>
+    <col customWidth="1" min="162" max="162" width="68.25"/>
+    <col customWidth="1" min="163" max="163" width="76.13"/>
+    <col customWidth="1" min="164" max="164" width="75.75"/>
+    <col customWidth="1" min="165" max="165" width="71.25"/>
+    <col customWidth="1" min="166" max="166" width="70.88"/>
+    <col customWidth="1" min="167" max="167" width="73.63"/>
+    <col customWidth="1" min="168" max="168" width="73.25"/>
+    <col customWidth="1" min="169" max="169" width="76.0"/>
+    <col customWidth="1" min="170" max="170" width="75.63"/>
+    <col customWidth="1" min="171" max="171" width="75.5"/>
+    <col customWidth="1" min="172" max="172" width="75.0"/>
+    <col customWidth="1" min="173" max="173" width="75.5"/>
+    <col customWidth="1" min="174" max="174" width="75.13"/>
+    <col customWidth="1" min="175" max="175" width="67.0"/>
+    <col customWidth="1" min="176" max="176" width="66.63"/>
+    <col customWidth="1" min="177" max="177" width="76.75"/>
+    <col customWidth="1" min="178" max="178" width="76.38"/>
+    <col customWidth="1" min="179" max="179" width="79.0"/>
+    <col customWidth="1" min="180" max="180" width="78.63"/>
+    <col customWidth="1" min="181" max="181" width="74.63"/>
+    <col customWidth="1" min="182" max="182" width="74.13"/>
+    <col customWidth="1" min="183" max="183" width="74.38"/>
+    <col customWidth="1" min="184" max="184" width="73.88"/>
+    <col customWidth="1" min="185" max="185" width="81.25"/>
+    <col customWidth="1" min="186" max="186" width="80.75"/>
+    <col customWidth="1" min="187" max="187" width="74.63"/>
+    <col customWidth="1" min="188" max="188" width="74.13"/>
+    <col customWidth="1" min="189" max="189" width="69.5"/>
+    <col customWidth="1" min="190" max="190" width="69.0"/>
+    <col customWidth="1" min="191" max="191" width="75.63"/>
+    <col customWidth="1" min="192" max="192" width="75.25"/>
+    <col customWidth="1" min="193" max="193" width="71.0"/>
+    <col customWidth="1" min="194" max="194" width="70.5"/>
+    <col customWidth="1" min="195" max="195" width="66.13"/>
+    <col customWidth="1" min="196" max="196" width="65.75"/>
+    <col customWidth="1" min="197" max="197" width="78.0"/>
+    <col customWidth="1" min="198" max="198" width="77.5"/>
+    <col customWidth="1" min="199" max="199" width="75.25"/>
+    <col customWidth="1" min="200" max="200" width="74.88"/>
+    <col customWidth="1" min="201" max="201" width="80.5"/>
+    <col customWidth="1" min="202" max="202" width="80.0"/>
+    <col customWidth="1" min="203" max="203" width="82.38"/>
+    <col customWidth="1" min="204" max="204" width="81.88"/>
+    <col customWidth="1" min="205" max="205" width="72.13"/>
+    <col customWidth="1" min="206" max="206" width="71.75"/>
+    <col customWidth="1" min="207" max="207" width="79.88"/>
+    <col customWidth="1" min="208" max="208" width="79.5"/>
+    <col customWidth="1" min="209" max="209" width="79.13"/>
+    <col customWidth="1" min="210" max="210" width="78.75"/>
+    <col customWidth="1" min="211" max="211" width="84.5"/>
+    <col customWidth="1" min="212" max="212" width="84.0"/>
+    <col customWidth="1" min="213" max="213" width="83.63"/>
+    <col customWidth="1" min="214" max="214" width="83.25"/>
+    <col customWidth="1" min="215" max="215" width="79.25"/>
+    <col customWidth="1" min="216" max="216" width="78.88"/>
+    <col customWidth="1" min="217" max="217" width="81.38"/>
+    <col customWidth="1" min="218" max="218" width="81.0"/>
+    <col customWidth="1" min="219" max="219" width="79.38"/>
+    <col customWidth="1" min="220" max="220" width="79.0"/>
+    <col customWidth="1" min="221" max="221" width="81.75"/>
+    <col customWidth="1" min="222" max="222" width="81.38"/>
+    <col customWidth="1" min="223" max="223" width="80.0"/>
+    <col customWidth="1" min="224" max="224" width="79.63"/>
+    <col customWidth="1" min="225" max="225" width="75.75"/>
+    <col customWidth="1" min="226" max="226" width="75.25"/>
+    <col customWidth="1" min="227" max="227" width="82.5"/>
+    <col customWidth="1" min="228" max="228" width="82.0"/>
+    <col customWidth="1" min="229" max="229" width="84.0"/>
+    <col customWidth="1" min="230" max="230" width="83.63"/>
+    <col customWidth="1" min="231" max="231" width="82.5"/>
+    <col customWidth="1" min="232" max="232" width="82.13"/>
+    <col customWidth="1" min="233" max="233" width="81.38"/>
+    <col customWidth="1" min="234" max="234" width="80.88"/>
+    <col customWidth="1" min="235" max="235" width="76.5"/>
+    <col customWidth="1" min="236" max="236" width="76.13"/>
+    <col customWidth="1" min="237" max="237" width="78.38"/>
+    <col customWidth="1" min="238" max="238" width="78.0"/>
+    <col customWidth="1" min="239" max="239" width="77.63"/>
+    <col customWidth="1" min="240" max="240" width="77.13"/>
+    <col customWidth="1" min="241" max="241" width="75.88"/>
+    <col customWidth="1" min="242" max="242" width="75.5"/>
+    <col customWidth="1" min="243" max="243" width="79.5"/>
+    <col customWidth="1" min="244" max="244" width="79.0"/>
+    <col customWidth="1" min="245" max="245" width="75.63"/>
+    <col customWidth="1" min="246" max="247" width="75.25"/>
+    <col customWidth="1" min="248" max="248" width="74.75"/>
+    <col customWidth="1" min="249" max="249" width="72.88"/>
+    <col customWidth="1" min="250" max="250" width="72.5"/>
+    <col customWidth="1" min="251" max="251" width="78.63"/>
+    <col customWidth="1" min="252" max="252" width="78.25"/>
+    <col customWidth="1" min="253" max="253" width="71.38"/>
+    <col customWidth="1" min="254" max="254" width="71.0"/>
+    <col customWidth="1" min="255" max="255" width="74.88"/>
+    <col customWidth="1" min="256" max="256" width="74.5"/>
+    <col customWidth="1" min="257" max="257" width="77.88"/>
+    <col customWidth="1" min="258" max="258" width="77.5"/>
+    <col customWidth="1" min="259" max="259" width="79.25"/>
+    <col customWidth="1" min="260" max="260" width="78.75"/>
+    <col customWidth="1" min="261" max="261" width="81.13"/>
+    <col customWidth="1" min="262" max="262" width="80.63"/>
+    <col customWidth="1" min="263" max="263" width="80.88"/>
+    <col customWidth="1" min="264" max="264" width="80.5"/>
+    <col customWidth="1" min="265" max="265" width="81.0"/>
+    <col customWidth="1" min="266" max="266" width="80.63"/>
+    <col customWidth="1" min="267" max="267" width="74.75"/>
+    <col customWidth="1" min="268" max="268" width="74.25"/>
+    <col customWidth="1" min="269" max="269" width="75.0"/>
+    <col customWidth="1" min="270" max="270" width="74.5"/>
+    <col customWidth="1" min="271" max="271" width="77.13"/>
+    <col customWidth="1" min="272" max="272" width="76.75"/>
+    <col customWidth="1" min="273" max="273" width="81.75"/>
+    <col customWidth="1" min="274" max="274" width="81.38"/>
+    <col customWidth="1" min="275" max="275" width="80.63"/>
+    <col customWidth="1" min="276" max="276" width="80.13"/>
+    <col customWidth="1" min="277" max="277" width="80.0"/>
+    <col customWidth="1" min="278" max="278" width="79.5"/>
+    <col customWidth="1" min="279" max="279" width="84.38"/>
+    <col customWidth="1" min="280" max="280" width="83.88"/>
+    <col customWidth="1" min="281" max="281" width="77.25"/>
+    <col customWidth="1" min="282" max="282" width="76.88"/>
+    <col customWidth="1" min="283" max="283" width="77.88"/>
+    <col customWidth="1" min="284" max="284" width="77.5"/>
+    <col customWidth="1" min="285" max="285" width="81.38"/>
+    <col customWidth="1" min="286" max="286" width="81.0"/>
+    <col customWidth="1" min="287" max="287" width="78.25"/>
+    <col customWidth="1" min="288" max="288" width="77.75"/>
+    <col customWidth="1" min="289" max="289" width="76.0"/>
+    <col customWidth="1" min="290" max="290" width="75.5"/>
+    <col customWidth="1" min="291" max="291" width="82.25"/>
+    <col customWidth="1" min="292" max="292" width="81.88"/>
+    <col customWidth="1" min="293" max="293" width="82.38"/>
+    <col customWidth="1" min="294" max="294" width="82.0"/>
+    <col customWidth="1" min="295" max="295" width="69.5"/>
+    <col customWidth="1" min="296" max="296" width="69.13"/>
+    <col customWidth="1" min="297" max="297" width="62.25"/>
+    <col customWidth="1" min="298" max="298" width="61.75"/>
+    <col customWidth="1" min="299" max="299" width="64.0"/>
+    <col customWidth="1" min="300" max="300" width="63.63"/>
+    <col customWidth="1" min="301" max="301" width="65.13"/>
+    <col customWidth="1" min="302" max="302" width="64.75"/>
+    <col customWidth="1" min="303" max="303" width="64.13"/>
+    <col customWidth="1" min="304" max="304" width="63.75"/>
+    <col customWidth="1" min="305" max="305" width="64.38"/>
+    <col customWidth="1" min="306" max="306" width="64.0"/>
+    <col customWidth="1" min="307" max="307" width="60.25"/>
+    <col customWidth="1" min="308" max="308" width="59.88"/>
+    <col customWidth="1" min="309" max="309" width="62.38"/>
+    <col customWidth="1" min="310" max="310" width="62.0"/>
+    <col customWidth="1" min="311" max="311" width="63.25"/>
+    <col customWidth="1" min="312" max="312" width="62.88"/>
+    <col customWidth="1" min="313" max="313" width="61.0"/>
+    <col customWidth="1" min="314" max="314" width="60.63"/>
+    <col customWidth="1" min="315" max="315" width="73.75"/>
+    <col customWidth="1" min="316" max="316" width="73.38"/>
+    <col customWidth="1" min="317" max="317" width="68.13"/>
+    <col customWidth="1" min="318" max="318" width="67.75"/>
+    <col customWidth="1" min="319" max="319" width="68.5"/>
+    <col customWidth="1" min="320" max="320" width="68.13"/>
+    <col customWidth="1" min="321" max="321" width="65.25"/>
+    <col customWidth="1" min="322" max="322" width="64.88"/>
+    <col customWidth="1" min="323" max="323" width="69.0"/>
+    <col customWidth="1" min="324" max="324" width="68.63"/>
+    <col customWidth="1" min="325" max="325" width="73.5"/>
+    <col customWidth="1" min="326" max="326" width="73.0"/>
+    <col customWidth="1" min="327" max="327" width="56.25"/>
+    <col customWidth="1" min="328" max="328" width="55.88"/>
+    <col customWidth="1" min="329" max="329" width="63.88"/>
+    <col customWidth="1" min="330" max="330" width="63.5"/>
+    <col customWidth="1" min="331" max="331" width="67.25"/>
+    <col customWidth="1" min="332" max="332" width="66.88"/>
+    <col customWidth="1" min="333" max="333" width="64.38"/>
+    <col customWidth="1" min="334" max="334" width="64.0"/>
+    <col customWidth="1" min="335" max="335" width="60.38"/>
+    <col customWidth="1" min="336" max="336" width="60.0"/>
+    <col customWidth="1" min="337" max="337" width="59.75"/>
+    <col customWidth="1" min="338" max="338" width="59.25"/>
+    <col customWidth="1" min="339" max="339" width="63.63"/>
+    <col customWidth="1" min="340" max="340" width="63.13"/>
+    <col customWidth="1" min="341" max="341" width="64.75"/>
+    <col customWidth="1" min="342" max="342" width="64.38"/>
+    <col customWidth="1" min="343" max="343" width="70.88"/>
+    <col customWidth="1" min="344" max="344" width="70.5"/>
+    <col customWidth="1" min="345" max="345" width="65.38"/>
+    <col customWidth="1" min="346" max="346" width="64.88"/>
+    <col customWidth="1" min="347" max="347" width="75.5"/>
+    <col customWidth="1" min="348" max="348" width="75.13"/>
+    <col customWidth="1" min="349" max="349" width="73.38"/>
+    <col customWidth="1" min="350" max="350" width="72.88"/>
+    <col customWidth="1" min="351" max="351" width="68.13"/>
+    <col customWidth="1" min="352" max="352" width="67.75"/>
+    <col customWidth="1" min="353" max="353" width="75.75"/>
+    <col customWidth="1" min="354" max="354" width="75.38"/>
+    <col customWidth="1" min="355" max="355" width="68.38"/>
+    <col customWidth="1" min="356" max="356" width="68.0"/>
+    <col customWidth="1" min="357" max="357" width="62.5"/>
+    <col customWidth="1" min="358" max="358" width="62.0"/>
+    <col customWidth="1" min="359" max="359" width="67.88"/>
+    <col customWidth="1" min="360" max="360" width="67.5"/>
+    <col customWidth="1" min="361" max="361" width="68.5"/>
+    <col customWidth="1" min="362" max="362" width="68.13"/>
+    <col customWidth="1" min="363" max="363" width="70.25"/>
+    <col customWidth="1" min="364" max="364" width="69.88"/>
+    <col customWidth="1" min="365" max="365" width="72.5"/>
+    <col customWidth="1" min="366" max="366" width="72.13"/>
+    <col customWidth="1" min="367" max="367" width="68.38"/>
+    <col customWidth="1" min="368" max="368" width="67.88"/>
+    <col customWidth="1" min="369" max="369" width="61.75"/>
+    <col customWidth="1" min="370" max="370" width="61.25"/>
+    <col customWidth="1" min="371" max="371" width="72.5"/>
+    <col customWidth="1" min="372" max="372" width="72.13"/>
+    <col customWidth="1" min="373" max="373" width="69.88"/>
+    <col customWidth="1" min="374" max="374" width="69.5"/>
+    <col customWidth="1" min="375" max="375" width="66.63"/>
+    <col customWidth="1" min="376" max="376" width="66.25"/>
+    <col customWidth="1" min="377" max="377" width="70.75"/>
+    <col customWidth="1" min="378" max="378" width="70.38"/>
+    <col customWidth="1" min="379" max="379" width="64.38"/>
+    <col customWidth="1" min="380" max="380" width="64.0"/>
+    <col customWidth="1" min="381" max="381" width="58.13"/>
+    <col customWidth="1" min="382" max="382" width="57.75"/>
+    <col customWidth="1" min="383" max="383" width="69.63"/>
+    <col customWidth="1" min="384" max="384" width="69.25"/>
+    <col customWidth="1" min="385" max="385" width="62.25"/>
+    <col customWidth="1" min="386" max="386" width="61.88"/>
+    <col customWidth="1" min="387" max="387" width="66.13"/>
+    <col customWidth="1" min="388" max="388" width="65.63"/>
+    <col customWidth="1" min="389" max="389" width="69.5"/>
+    <col customWidth="1" min="390" max="390" width="69.13"/>
+    <col customWidth="1" min="391" max="391" width="67.38"/>
+    <col customWidth="1" min="392" max="392" width="67.0"/>
+    <col customWidth="1" min="393" max="393" width="73.0"/>
+    <col customWidth="1" min="394" max="394" width="72.5"/>
+    <col customWidth="1" min="395" max="395" width="73.75"/>
+    <col customWidth="1" min="396" max="396" width="73.38"/>
+    <col customWidth="1" min="397" max="397" width="68.88"/>
+    <col customWidth="1" min="398" max="398" width="68.5"/>
+    <col customWidth="1" min="399" max="399" width="68.75"/>
+    <col customWidth="1" min="400" max="400" width="68.25"/>
+    <col customWidth="1" min="401" max="401" width="64.88"/>
+    <col customWidth="1" min="402" max="402" width="64.5"/>
+    <col customWidth="1" min="403" max="403" width="63.13"/>
+    <col customWidth="1" min="404" max="405" width="62.75"/>
+    <col customWidth="1" min="406" max="406" width="62.38"/>
+    <col customWidth="1" min="407" max="407" width="67.38"/>
+    <col customWidth="1" min="408" max="408" width="67.0"/>
+    <col customWidth="1" min="409" max="409" width="67.63"/>
+    <col customWidth="1" min="410" max="410" width="67.25"/>
+    <col customWidth="1" min="411" max="411" width="73.63"/>
+    <col customWidth="1" min="412" max="412" width="73.25"/>
+    <col customWidth="1" min="413" max="413" width="66.75"/>
+    <col customWidth="1" min="414" max="414" width="66.38"/>
+    <col customWidth="1" min="415" max="415" width="71.38"/>
+    <col customWidth="1" min="416" max="416" width="71.0"/>
+    <col customWidth="1" min="417" max="417" width="64.5"/>
+    <col customWidth="1" min="418" max="418" width="64.0"/>
+    <col customWidth="1" min="419" max="419" width="69.5"/>
+    <col customWidth="1" min="420" max="420" width="69.13"/>
+    <col customWidth="1" min="421" max="421" width="76.0"/>
+    <col customWidth="1" min="422" max="422" width="75.63"/>
+    <col customWidth="1" min="423" max="423" width="76.25"/>
+    <col customWidth="1" min="424" max="424" width="75.88"/>
+    <col customWidth="1" min="425" max="425" width="72.38"/>
+    <col customWidth="1" min="426" max="426" width="71.88"/>
+    <col customWidth="1" min="427" max="427" width="72.38"/>
+    <col customWidth="1" min="428" max="428" width="72.0"/>
+    <col customWidth="1" min="429" max="430" width="74.13"/>
+    <col customWidth="1" min="431" max="432" width="70.63"/>
+    <col customWidth="1" min="433" max="434" width="66.13"/>
+    <col customWidth="1" min="435" max="436" width="75.63"/>
+    <col customWidth="1" min="437" max="438" width="69.75"/>
+    <col customWidth="1" min="439" max="440" width="68.25"/>
+    <col customWidth="1" min="441" max="442" width="73.25"/>
+    <col customWidth="1" min="443" max="444" width="70.25"/>
+    <col customWidth="1" min="445" max="446" width="71.13"/>
+    <col customWidth="1" min="447" max="448" width="72.25"/>
+    <col customWidth="1" min="449" max="450" width="72.0"/>
+    <col customWidth="1" min="451" max="452" width="72.5"/>
+    <col customWidth="1" min="453" max="454" width="66.0"/>
+    <col customWidth="1" min="455" max="456" width="74.0"/>
+    <col customWidth="1" min="457" max="458" width="68.13"/>
+    <col customWidth="1" min="459" max="460" width="72.0"/>
+    <col customWidth="1" min="461" max="462" width="67.88"/>
+    <col customWidth="1" min="463" max="464" width="64.25"/>
+    <col customWidth="1" min="465" max="465" width="76.63"/>
+    <col customWidth="1" min="466" max="466" width="76.5"/>
+    <col customWidth="1" min="467" max="468" width="72.75"/>
+    <col customWidth="1" min="469" max="470" width="70.88"/>
+    <col customWidth="1" min="471" max="472" width="75.63"/>
+    <col customWidth="1" min="473" max="474" width="70.25"/>
+    <col customWidth="1" min="475" max="476" width="76.13"/>
+    <col customWidth="1" min="477" max="478" width="72.25"/>
+    <col customWidth="1" min="479" max="480" width="76.25"/>
+    <col customWidth="1" min="481" max="482" width="73.63"/>
+    <col customWidth="1" min="483" max="484" width="71.88"/>
+    <col customWidth="1" min="485" max="486" width="71.38"/>
+    <col customWidth="1" min="487" max="488" width="74.0"/>
+    <col customWidth="1" min="489" max="490" width="74.5"/>
+    <col customWidth="1" min="491" max="492" width="56.5"/>
+    <col customWidth="1" min="493" max="494" width="71.75"/>
+    <col customWidth="1" min="495" max="495" width="78.38"/>
+    <col customWidth="1" min="496" max="496" width="77.88"/>
+    <col customWidth="1" min="497" max="497" width="79.25"/>
+    <col customWidth="1" min="498" max="498" width="78.75"/>
+    <col customWidth="1" min="499" max="499" width="78.88"/>
+    <col customWidth="1" min="500" max="500" width="78.38"/>
+    <col customWidth="1" min="501" max="501" width="73.38"/>
+    <col customWidth="1" min="502" max="502" width="72.88"/>
+    <col customWidth="1" min="503" max="503" width="79.75"/>
+    <col customWidth="1" min="504" max="504" width="79.38"/>
+    <col customWidth="1" min="505" max="505" width="80.88"/>
+    <col customWidth="1" min="506" max="506" width="80.38"/>
+    <col customWidth="1" min="507" max="507" width="80.5"/>
+    <col customWidth="1" min="508" max="508" width="80.0"/>
+    <col customWidth="1" min="509" max="509" width="72.5"/>
+    <col customWidth="1" min="510" max="510" width="72.13"/>
+    <col customWidth="1" min="511" max="511" width="79.25"/>
+    <col customWidth="1" min="512" max="512" width="78.88"/>
+    <col customWidth="1" min="513" max="513" width="77.75"/>
+    <col customWidth="1" min="514" max="514" width="77.38"/>
+    <col customWidth="1" min="515" max="515" width="81.25"/>
+    <col customWidth="1" min="516" max="516" width="80.88"/>
+    <col customWidth="1" min="517" max="517" width="77.75"/>
+    <col customWidth="1" min="518" max="518" width="77.38"/>
+    <col customWidth="1" min="519" max="519" width="78.0"/>
+    <col customWidth="1" min="520" max="520" width="77.63"/>
+    <col customWidth="1" min="521" max="521" width="77.5"/>
+    <col customWidth="1" min="522" max="522" width="77.13"/>
+    <col customWidth="1" min="523" max="523" width="80.25"/>
+    <col customWidth="1" min="524" max="524" width="79.75"/>
+    <col customWidth="1" min="525" max="525" width="78.0"/>
+    <col customWidth="1" min="526" max="526" width="77.5"/>
+    <col customWidth="1" min="527" max="527" width="76.75"/>
+    <col customWidth="1" min="528" max="528" width="76.38"/>
+    <col customWidth="1" min="529" max="529" width="76.88"/>
+    <col customWidth="1" min="530" max="530" width="76.38"/>
+    <col customWidth="1" min="531" max="531" width="77.75"/>
+    <col customWidth="1" min="532" max="532" width="77.38"/>
+    <col customWidth="1" min="533" max="533" width="72.0"/>
+    <col customWidth="1" min="534" max="534" width="71.63"/>
+    <col customWidth="1" min="535" max="535" width="71.38"/>
+    <col customWidth="1" min="536" max="536" width="71.0"/>
+    <col customWidth="1" min="537" max="537" width="61.25"/>
+    <col customWidth="1" min="538" max="538" width="60.88"/>
+    <col customWidth="1" min="539" max="539" width="64.5"/>
+    <col customWidth="1" min="540" max="540" width="64.0"/>
+    <col customWidth="1" min="541" max="541" width="73.13"/>
+    <col customWidth="1" min="542" max="542" width="72.75"/>
+    <col customWidth="1" min="543" max="543" width="71.88"/>
+    <col customWidth="1" min="544" max="544" width="71.38"/>
+    <col customWidth="1" min="545" max="545" width="72.88"/>
+    <col customWidth="1" min="546" max="546" width="72.38"/>
+    <col customWidth="1" min="547" max="547" width="72.13"/>
+    <col customWidth="1" min="548" max="548" width="71.75"/>
+    <col customWidth="1" min="549" max="549" width="75.38"/>
+    <col customWidth="1" min="550" max="550" width="74.88"/>
+    <col customWidth="1" min="551" max="551" width="81.5"/>
+    <col customWidth="1" min="552" max="552" width="81.13"/>
+    <col customWidth="1" min="553" max="553" width="78.63"/>
+    <col customWidth="1" min="554" max="554" width="78.25"/>
+    <col customWidth="1" min="555" max="555" width="72.5"/>
+    <col customWidth="1" min="556" max="556" width="72.13"/>
+    <col customWidth="1" min="557" max="557" width="79.88"/>
+    <col customWidth="1" min="558" max="558" width="79.38"/>
+    <col customWidth="1" min="559" max="559" width="81.5"/>
+    <col customWidth="1" min="560" max="560" width="81.13"/>
+    <col customWidth="1" min="561" max="561" width="79.5"/>
+    <col customWidth="1" min="562" max="562" width="79.13"/>
+    <col customWidth="1" min="563" max="563" width="80.5"/>
+    <col customWidth="1" min="564" max="564" width="80.13"/>
+    <col customWidth="1" min="565" max="565" width="76.13"/>
+    <col customWidth="1" min="566" max="566" width="75.75"/>
+    <col customWidth="1" min="567" max="567" width="78.75"/>
+    <col customWidth="1" min="568" max="568" width="78.25"/>
+    <col customWidth="1" min="569" max="569" width="73.25"/>
+    <col customWidth="1" min="570" max="570" width="72.88"/>
+    <col customWidth="1" min="571" max="571" width="73.88"/>
+    <col customWidth="1" min="572" max="572" width="73.5"/>
+    <col customWidth="1" min="573" max="573" width="86.38"/>
+    <col customWidth="1" min="574" max="574" width="86.0"/>
+    <col customWidth="1" min="575" max="575" width="71.63"/>
+    <col customWidth="1" min="576" max="576" width="71.25"/>
+    <col customWidth="1" min="577" max="577" width="84.88"/>
+    <col customWidth="1" min="578" max="578" width="84.5"/>
+    <col customWidth="1" min="579" max="579" width="77.0"/>
+    <col customWidth="1" min="580" max="580" width="76.63"/>
+    <col customWidth="1" min="581" max="581" width="82.38"/>
+    <col customWidth="1" min="582" max="582" width="82.0"/>
+    <col customWidth="1" min="583" max="583" width="78.13"/>
+    <col customWidth="1" min="584" max="584" width="77.63"/>
+    <col customWidth="1" min="585" max="585" width="75.25"/>
+    <col customWidth="1" min="586" max="586" width="74.88"/>
+    <col customWidth="1" min="587" max="587" width="80.63"/>
+    <col customWidth="1" min="588" max="588" width="80.25"/>
+    <col customWidth="1" min="589" max="589" width="75.13"/>
+    <col customWidth="1" min="590" max="590" width="74.75"/>
+    <col customWidth="1" min="591" max="591" width="78.88"/>
+    <col customWidth="1" min="592" max="592" width="78.38"/>
+    <col customWidth="1" min="593" max="593" width="79.5"/>
+    <col customWidth="1" min="594" max="594" width="79.13"/>
+    <col customWidth="1" min="595" max="595" width="81.0"/>
+    <col customWidth="1" min="596" max="596" width="80.63"/>
+    <col customWidth="1" min="597" max="597" width="69.0"/>
+    <col customWidth="1" min="598" max="598" width="68.5"/>
+    <col customWidth="1" min="599" max="599" width="76.25"/>
+    <col customWidth="1" min="600" max="600" width="75.88"/>
+    <col customWidth="1" min="601" max="601" width="78.38"/>
+    <col customWidth="1" min="602" max="602" width="78.0"/>
+    <col customWidth="1" min="603" max="603" width="81.13"/>
+    <col customWidth="1" min="604" max="604" width="80.63"/>
+    <col customWidth="1" min="605" max="605" width="80.75"/>
+    <col customWidth="1" min="606" max="606" width="80.25"/>
+    <col customWidth="1" min="607" max="607" width="83.63"/>
+    <col customWidth="1" min="608" max="608" width="83.25"/>
+    <col customWidth="1" min="609" max="609" width="68.38"/>
+    <col customWidth="1" min="610" max="610" width="68.0"/>
+    <col customWidth="1" min="611" max="611" width="77.0"/>
+    <col customWidth="1" min="612" max="612" width="76.63"/>
+    <col customWidth="1" min="613" max="613" width="79.5"/>
+    <col customWidth="1" min="614" max="614" width="79.0"/>
+    <col customWidth="1" min="615" max="615" width="76.38"/>
+    <col customWidth="1" min="616" max="616" width="76.0"/>
+    <col customWidth="1" min="617" max="617" width="78.88"/>
+    <col customWidth="1" min="618" max="618" width="78.5"/>
+    <col customWidth="1" min="619" max="619" width="81.63"/>
+    <col customWidth="1" min="620" max="620" width="81.25"/>
+    <col customWidth="1" min="621" max="621" width="81.0"/>
+    <col customWidth="1" min="622" max="622" width="80.63"/>
+    <col customWidth="1" min="623" max="623" width="81.13"/>
+    <col customWidth="1" min="624" max="624" width="80.75"/>
+    <col customWidth="1" min="625" max="625" width="76.13"/>
+    <col customWidth="1" min="626" max="626" width="75.63"/>
+    <col customWidth="1" min="627" max="627" width="79.75"/>
+    <col customWidth="1" min="628" max="628" width="79.25"/>
+    <col customWidth="1" min="629" max="629" width="82.5"/>
+    <col customWidth="1" min="630" max="630" width="82.0"/>
+    <col customWidth="1" min="631" max="631" width="81.0"/>
+    <col customWidth="1" min="632" max="632" width="80.5"/>
+    <col customWidth="1" min="633" max="633" width="78.5"/>
+    <col customWidth="1" min="634" max="634" width="78.0"/>
+    <col customWidth="1" min="635" max="635" width="80.25"/>
+    <col customWidth="1" min="636" max="636" width="79.88"/>
+    <col customWidth="1" min="637" max="637" width="82.63"/>
+    <col customWidth="1" min="638" max="638" width="82.25"/>
+    <col customWidth="1" min="639" max="639" width="83.63"/>
+    <col customWidth="1" min="640" max="640" width="83.25"/>
+    <col customWidth="1" min="641" max="641" width="82.13"/>
+    <col customWidth="1" min="642" max="642" width="81.63"/>
+    <col customWidth="1" min="643" max="643" width="77.0"/>
+    <col customWidth="1" min="644" max="644" width="76.5"/>
+    <col customWidth="1" min="645" max="645" width="74.63"/>
+    <col customWidth="1" min="646" max="646" width="74.13"/>
+    <col customWidth="1" min="647" max="647" width="79.13"/>
+    <col customWidth="1" min="648" max="648" width="78.75"/>
+    <col customWidth="1" min="649" max="649" width="80.63"/>
+    <col customWidth="1" min="650" max="651" width="80.13"/>
+    <col customWidth="1" min="652" max="652" width="79.63"/>
+    <col customWidth="1" min="653" max="653" width="66.38"/>
+    <col customWidth="1" min="654" max="654" width="65.88"/>
+    <col customWidth="1" min="655" max="655" width="77.13"/>
+    <col customWidth="1" min="656" max="656" width="76.75"/>
+    <col customWidth="1" min="657" max="657" width="82.63"/>
+    <col customWidth="1" min="658" max="658" width="82.13"/>
+    <col customWidth="1" min="659" max="659" width="78.5"/>
+    <col customWidth="1" min="660" max="660" width="78.0"/>
+    <col customWidth="1" min="661" max="661" width="79.5"/>
+    <col customWidth="1" min="662" max="662" width="79.13"/>
+    <col customWidth="1" min="663" max="663" width="76.75"/>
+    <col customWidth="1" min="664" max="664" width="76.38"/>
+    <col customWidth="1" min="665" max="665" width="85.75"/>
+    <col customWidth="1" min="666" max="666" width="85.38"/>
+    <col customWidth="1" min="667" max="667" width="87.38"/>
+    <col customWidth="1" min="668" max="668" width="87.0"/>
+    <col customWidth="1" min="669" max="669" width="84.5"/>
+    <col customWidth="1" min="670" max="670" width="84.13"/>
+    <col customWidth="1" min="671" max="671" width="86.25"/>
+    <col customWidth="1" min="672" max="672" width="85.88"/>
+    <col customWidth="1" min="673" max="673" width="84.0"/>
+    <col customWidth="1" min="674" max="674" width="83.63"/>
+    <col customWidth="1" min="675" max="675" width="79.75"/>
+    <col customWidth="1" min="676" max="676" width="79.38"/>
+    <col customWidth="1" min="677" max="677" width="79.0"/>
+    <col customWidth="1" min="678" max="678" width="78.63"/>
+    <col customWidth="1" min="679" max="679" width="80.13"/>
+    <col customWidth="1" min="680" max="680" width="79.75"/>
+    <col customWidth="1" min="681" max="681" width="71.75"/>
+    <col customWidth="1" min="682" max="682" width="71.38"/>
+    <col customWidth="1" min="683" max="683" width="74.38"/>
+    <col customWidth="1" min="684" max="684" width="74.0"/>
+    <col customWidth="1" min="685" max="685" width="76.5"/>
+    <col customWidth="1" min="686" max="686" width="76.0"/>
+    <col customWidth="1" min="687" max="687" width="78.75"/>
+    <col customWidth="1" min="688" max="688" width="78.38"/>
+    <col customWidth="1" min="689" max="689" width="80.5"/>
+    <col customWidth="1" min="690" max="690" width="80.0"/>
+    <col customWidth="1" min="691" max="691" width="74.63"/>
+    <col customWidth="1" min="692" max="692" width="74.25"/>
+    <col customWidth="1" min="693" max="693" width="83.38"/>
+    <col customWidth="1" min="694" max="694" width="82.88"/>
+    <col customWidth="1" min="695" max="695" width="78.63"/>
+    <col customWidth="1" min="696" max="696" width="78.25"/>
+    <col customWidth="1" min="697" max="697" width="78.0"/>
+    <col customWidth="1" min="698" max="698" width="77.5"/>
+    <col customWidth="1" min="699" max="699" width="72.5"/>
+    <col customWidth="1" min="700" max="700" width="72.0"/>
+    <col customWidth="1" min="701" max="701" width="78.38"/>
+    <col customWidth="1" min="702" max="702" width="78.0"/>
+    <col customWidth="1" hidden="1" min="703" max="703" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5448,6 +5481,12 @@
         <v>731</v>
       </c>
       <c r="ZY1" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="ZZ1" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="AAA1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5456,10 +5495,10 @@
         <v>45869.54005787037</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="S2" s="4">
         <v>45871.0</v>
@@ -5467,7 +5506,7 @@
       <c r="EN2" s="2">
         <v>1.0</v>
       </c>
-      <c r="ZY2" s="5" t="str">
+      <c r="AAA2" s="5" t="str">
         <f>TEXT("6297470614916481266","0")</f>
         <v>6297470614916481266</v>
       </c>
@@ -5477,10 +5516,10 @@
         <v>45869.54047453704</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="S3" s="4">
         <v>45873.0</v>
@@ -5491,7 +5530,7 @@
       <c r="ES3" s="2">
         <v>10.0</v>
       </c>
-      <c r="ZY3" s="5" t="str">
+      <c r="AAA3" s="5" t="str">
         <f>TEXT("6297470974918701053","0")</f>
         <v>6297470974918701053</v>
       </c>
@@ -5501,16 +5540,16 @@
         <v>45869.66715277778</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="S4" s="4">
         <v>45870.0</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="RI4" s="2">
         <v>2.0</v>
@@ -5524,7 +5563,7 @@
       <c r="SS4" s="2">
         <v>6.0</v>
       </c>
-      <c r="ZY4" s="5" t="str">
+      <c r="AAA4" s="5" t="str">
         <f>TEXT("6297580424208195550","0")</f>
         <v>6297580424208195550</v>
       </c>
@@ -5534,10 +5573,10 @@
         <v>45869.722916666666</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="S5" s="4">
         <v>45871.0</v>
@@ -5545,7 +5584,7 @@
       <c r="XU5" s="2">
         <v>5.0</v>
       </c>
-      <c r="ZY5" s="5" t="str">
+      <c r="AAA5" s="5" t="str">
         <f>TEXT("6297628607513259860","0")</f>
         <v>6297628607513259860</v>
       </c>
@@ -5555,10 +5594,10 @@
         <v>45870.54180555556</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="S6" s="4">
         <v>45873.0</v>
@@ -5578,9 +5617,150 @@
       <c r="ZP6" s="2">
         <v>2.0</v>
       </c>
-      <c r="ZY6" s="5" t="str">
+      <c r="AAA6" s="5" t="str">
         <f>TEXT("6298336124916344454","0")</f>
         <v>6298336124916344454</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>45873.438125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="S7" s="4">
+        <v>45874.0</v>
+      </c>
+      <c r="FS7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="GA7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="GC7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="HE7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AAA7" s="5" t="str">
+        <f>TEXT("6300838544915433232","0")</f>
+        <v>6300838544915433232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>45873.53530092593</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="S8" s="4">
+        <v>45874.0</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="UG8" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="UT8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AAA8" s="5" t="str">
+        <f>TEXT("6300922504916825774","0")</f>
+        <v>6300922504916825774</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>45873.543657407405</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="S9" s="4">
+        <v>45874.0</v>
+      </c>
+      <c r="ZN9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AAA9" s="5" t="str">
+        <f>TEXT("6300929724919948189","0")</f>
+        <v>6300929724919948189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>45873.54736111111</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="S10" s="4">
+        <v>45876.0</v>
+      </c>
+      <c r="UZ10" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AAA10" s="5" t="str">
+        <f>TEXT("6300932924915257520","0")</f>
+        <v>6300932924915257520</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>45873.55030092593</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="S11" s="4">
+        <v>45874.0</v>
+      </c>
+      <c r="ZZ11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AAA11" s="5" t="str">
+        <f>TEXT("6300935464914281919","0")</f>
+        <v>6300935464914281919</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>45873.70355324074</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="S12" s="4">
+        <v>45874.0</v>
+      </c>
+      <c r="EV12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AAA12" s="5" t="str">
+        <f>TEXT("6301067874917518297","0")</f>
+        <v>6301067874917518297</v>
       </c>
     </row>
   </sheetData>
